--- a/Excel Data Analysis.xlsx
+++ b/Excel Data Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROZA1\Desktop\Data Analysis\Excel By chandoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46D90C1-3A62-4408-9984-241DDC3C50F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F04AEED-9B36-4BA5-9BB1-7F4BD05BAF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="974" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="974" firstSheet="5" activeTab="10" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
           </rPr>
           <t xml:space="preserve">
 ROZA1:
-click the box then choose Value filter &gt; top 10&gt; 5 </t>
+click the filter box then choose Value filter &gt; top 10&gt; 5 </t>
         </r>
       </text>
     </comment>
@@ -1160,9 +1160,6 @@
     <t>Carla Molina</t>
   </si>
   <si>
-    <t>Beginner Excel Data Analysis Course</t>
-  </si>
-  <si>
     <t>Questions</t>
   </si>
   <si>
@@ -1332,6 +1329,9 @@
   </si>
   <si>
     <t>total cost</t>
+  </si>
+  <si>
+    <t>Excel Data Analysis Course</t>
   </si>
 </sst>
 </file>
@@ -5557,71 +5557,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>288619</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152482</xdr:rowOff>
+      <xdr:rowOff>466995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1553744</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CBC2403-2B8C-4B60-A7E9-569863564554}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="-3057" t="-9662" r="-3057" b="-9662"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7267575" y="152482"/>
-          <a:ext cx="2314878" cy="704768"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9910"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>132755</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>94655</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>1549978</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>105640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5637,7 +5582,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5649,8 +5594,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247055" y="761405"/>
-          <a:ext cx="1257895" cy="1257895"/>
+          <a:off x="7813369" y="466995"/>
+          <a:ext cx="1261359" cy="1257895"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -9700,17 +9645,6 @@
     <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
     <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -9720,6 +9654,17 @@
             </reference>
             <reference field="0" count="1">
               <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1">
+              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
@@ -10230,8 +10175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="A1:Y658"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="L12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10255,7 +10200,7 @@
     <row r="1" spans="1:25" s="2" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25"/>
@@ -10275,23 +10220,23 @@
         <v>1</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="2"/>
       <c r="X11" t="s">
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -10322,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X12" t="s">
         <v>13</v>
@@ -10359,7 +10304,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X13" t="s">
         <v>14</v>
@@ -10396,7 +10341,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X14" t="s">
         <v>4</v>
@@ -10433,7 +10378,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s">
         <v>15</v>
@@ -10470,7 +10415,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X16" t="s">
         <v>16</v>
@@ -10507,7 +10452,7 @@
         <v>6</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X17" t="s">
         <v>17</v>
@@ -10544,7 +10489,7 @@
         <v>7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X18" t="s">
         <v>18</v>
@@ -10581,7 +10526,7 @@
         <v>8</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X19" t="s">
         <v>19</v>
@@ -10618,7 +10563,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X20" t="s">
         <v>20</v>
@@ -10655,7 +10600,7 @@
         <v>10</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X21" t="s">
         <v>21</v>
@@ -19390,7 +19335,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19405,7 +19350,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -19417,19 +19362,19 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C4" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33" t="s">
         <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H5" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -19441,7 +19386,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -19451,7 +19396,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O6" t="str">
         <v>USA</v>
@@ -19479,7 +19424,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8">
@@ -19528,10 +19473,10 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
@@ -19554,7 +19499,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="4">
         <f>SUMIFS(Data[Amount],Data[Geography],E$4)</f>
@@ -19582,7 +19527,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="4">
         <f>SUMIFS(Data[total cost],Data[Geography],E$4)</f>
@@ -19610,7 +19555,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="4">
         <f>E11-E12</f>
@@ -19638,7 +19583,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="4">
         <f>SUMIFS(Data[Units], Data[Geography],E$4)</f>
@@ -19768,8 +19713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3A2D3D-68DC-4D11-B3F5-1A3C0493F5E3}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19783,7 +19728,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -19792,19 +19737,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>75</v>
       </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -20183,7 +20128,7 @@
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <v>1240869</v>
@@ -20246,7 +20191,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -20256,18 +20201,18 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <f>AVERAGE(Data[Amount])</f>
@@ -20280,7 +20225,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <f>MEDIAN(Data[Amount])</f>
@@ -20293,7 +20238,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <f>MIN(Data[Amount])</f>
@@ -20306,7 +20251,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <f>MAX(Data[Amount])</f>
@@ -20319,7 +20264,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <f>D6-D5</f>
@@ -20338,7 +20283,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <f>_xlfn.PERCENTILE.EXC(Data[Amount],0.25)</f>
@@ -20359,7 +20304,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <f>_xlfn.PERCENTILE.EXC(Data[Amount],0.5)</f>
@@ -20380,7 +20325,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <f>_xlfn.PERCENTILE.EXC(Data[Amount],0.75)</f>
@@ -20401,12 +20346,12 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" t="str" cm="1">
         <f t="array" ref="F14:F35">_xlfn.UNIQUE(Data[Product])</f>
@@ -20415,7 +20360,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -20553,7 +20498,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -20573,7 +20518,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -25733,7 +25678,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25746,28 +25691,33 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -25982,20 +25932,20 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -26005,16 +25955,16 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -26151,7 +26101,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26164,7 +26114,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -26173,16 +26123,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -26266,7 +26216,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>353234</v>
@@ -26288,8 +26238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82716CB2-120B-400F-86A5-3FA742C478E9}">
   <dimension ref="A1:R304"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26305,11 +26255,13 @@
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -26326,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -31444,7 +31396,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31459,7 +31411,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -31467,16 +31419,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
         <v>74</v>
       </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
       <c r="H5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
         <v>74</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" ref="K5:K10">_xlfn.UNIQUE(Data[Geography])</f>
@@ -31632,13 +31584,13 @@
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>234045</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18">
         <v>30709</v>
@@ -31655,7 +31607,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31668,7 +31620,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -31680,16 +31632,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
         <v>74</v>
       </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
       <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
         <v>84</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -32002,7 +31954,7 @@
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26">
         <v>1240869</v>

--- a/Excel Data Analysis.xlsx
+++ b/Excel Data Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROZA1\Desktop\Data Analysis\Excel By chandoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F04AEED-9B36-4BA5-9BB1-7F4BD05BAF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F595B-9972-4C96-AC3D-161F3EEC93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="974" firstSheet="5" activeTab="10" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="974" firstSheet="1" activeTab="2" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$C$11:$G$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sales by Country report with fo'!$B$3:$E$9</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Are their any anamolies '!$Q$5:$Q$304</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Are their any anamolies '!$O$5:$O$304</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Are their any anamolies '!$O$5:$O$304</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Are their any anamolies '!$Q$5:$Q$304</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Are their any anamolies '!$Q$5:$Q$304</definedName>
     <definedName name="_xlcn.WorksheetConnection_ExcelDataAnalysis.xlsxdata1" hidden="1">Data[]</definedName>
     <definedName name="Slicer_Geography">#N/A</definedName>
@@ -3819,7 +3819,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3854,10 +3854,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9645,6 +9645,17 @@
     <dataField fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -9654,17 +9665,6 @@
             </reference>
             <reference field="0" count="1">
               <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1">
-              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
@@ -19334,8 +19334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A209A114-0786-4F74-81CF-0A6E922DA9BB}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19713,7 +19713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3A2D3D-68DC-4D11-B3F5-1A3C0493F5E3}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -20483,8 +20483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5EA599-3029-4DD7-9ACF-83F46C1C8F64}">
   <dimension ref="A1:G303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20502,6 +20502,7 @@
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -26238,7 +26239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82716CB2-120B-400F-86A5-3FA742C478E9}">
   <dimension ref="A1:R304"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
